--- a/11-CollaborationList/Swansea.xlsx
+++ b/11-CollaborationList/Swansea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE301C4F-C04D-6C44-A205-ADB6D094C016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFDD691-EC19-AC47-8D58-293D6AF28FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{C7B4DE1C-39A7-AE49-9FC7-F7ADD8BDB7FA}"/>
   </bookViews>
@@ -187,9 +187,6 @@
     <t>R.P.Hugtenburg@Swansea.ac.uk</t>
   </si>
   <si>
-    <t>R.P,</t>
-  </si>
-  <si>
     <t>R.P.Hugtenburg</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Department of Biomedical Sciences, Faculty of Science and Engineering, Swansea University, Singleton Park, Swansea, SA2 8PP</t>
+  </si>
+  <si>
+    <t>R.P.</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,19 +1358,19 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>54</v>
       </c>
       <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
       </c>
       <c r="I8">
         <v>0</v>

--- a/11-CollaborationList/Swansea.xlsx
+++ b/11-CollaborationList/Swansea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFDD691-EC19-AC47-8D58-293D6AF28FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136E18BE-A39B-5F4A-B1BB-34A2D6FBB1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{C7B4DE1C-39A7-AE49-9FC7-F7ADD8BDB7FA}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Swansea-Physics</t>
   </si>
   <si>
-    <t>Department of Physics, Faculty of Science and Engineering, Swansea University, Singleton Park, Swansea, SA2 8PP</t>
-  </si>
-  <si>
     <t>0000-0002-9448-8419</t>
   </si>
   <si>
@@ -193,10 +190,13 @@
     <t>Swansea-BioMed</t>
   </si>
   <si>
-    <t>Department of Biomedical Sciences, Faculty of Science and Engineering, Swansea University, Singleton Park, Swansea, SA2 8PP</t>
-  </si>
-  <si>
     <t>R.P.</t>
+  </si>
+  <si>
+    <t>Department of Physics, Faculty of Science and Engineering, Swansea University, Singleton Park, Swansea, SA2 8PP, UK</t>
+  </si>
+  <si>
+    <t>Department of Biomedical Sciences, Faculty of Science and Engineering, Swansea University, Singleton Park, Swansea, SA2 8PP, UK</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,77 +1187,77 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1265,25 +1265,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
       </c>
       <c r="I8">
         <v>0</v>
